--- a/biology/Zoologie/Bonitasaura/Bonitasaura.xlsx
+++ b/biology/Zoologie/Bonitasaura/Bonitasaura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonitasaura salgadoi
 Bonitasaura est un genre éteint de dinosaures sauropodes, un titanosaure du Crétacé supérieur qui a vécu dans ce qui est aujourd'hui l'Argentine.
-L'espèce type et seule espèce, B. salgadoi, a été décrite en 2004 par Sebastián Apesteguía[1] 
+L'espèce type et seule espèce, B. salgadoi, a été décrite en 2004 par Sebastián Apesteguía 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique Bonitasaura fait référence à la carrière « La Bonita » où ont été retrouvés les fossiles. Le nom spécifique a été donné en l'honneur de Leonardo Salgado, un paléontologue argentin.
 </t>
@@ -544,9 +558,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles de Bonitasaura ont été découverts dans des grès fluviatiles de la formation géologique de Bajo de la Carpa (groupe de Neuquén) dans la province de Río Negro dans le nord-ouest de la Patagonie. Cette formation est datée du Crétacé supérieur (Santonien), soit il y a environ entre 86,3 et 83,6 millions d'années. Les restes fossiles appartiennent à un individu subadulte, il s'agit d'une mandibule avec des dents, et de séries d'os des vertèbres et des membres postérieurs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de Bonitasaura ont été découverts dans des grès fluviatiles de la formation géologique de Bajo de la Carpa (groupe de Neuquén) dans la province de Río Negro dans le nord-ouest de la Patagonie. Cette formation est datée du Crétacé supérieur (Santonien), soit il y a environ entre 86,3 et 83,6 millions d'années. Les restes fossiles appartiennent à un individu subadulte, il s'agit d'une mandibule avec des dents, et de séries d'os des vertèbres et des membres postérieurs.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonitasaura mesure 10 m de long. Son crâne est similaire à ceux des Diplodocidae, un autre groupe de sauropodes. La mandibule a une arête vive distinctive, juste en arrière d'un ensemble réduit de dents. Cette crête soutenait un bec pointu en kératine, probablement jumelé avec une structure similaire dans la mâchoire supérieure. Cet animal a également un cou assez court avec des processus robustes sur les vertèbres dorsales permettant la fixation de muscles puissants qui autorisaient  de vigoureux efforts, probablement au cours de l'alimentation[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonitasaura mesure 10 m de long. Son crâne est similaire à ceux des Diplodocidae, un autre groupe de sauropodes. La mandibule a une arête vive distinctive, juste en arrière d'un ensemble réduit de dents. Cette crête soutenait un bec pointu en kératine, probablement jumelé avec une structure similaire dans la mâchoire supérieure. Cet animal a également un cou assez court avec des processus robustes sur les vertèbres dorsales permettant la fixation de muscles puissants qui autorisaient  de vigoureux efforts, probablement au cours de l'alimentation.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonitasaura a d'abord été classé, dans sa description initiale, comme un membre des Nemegtosauridae[1].
-Les analyses phylogénétiques suivantes l'ont classé dans le clade des Lithostrotia, un clade qui inclut les Lognkosauria et les Aeolosaurini[1],[2],[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonitasaura a d'abord été classé, dans sa description initiale, comme un membre des Nemegtosauridae.
+Les analyses phylogénétiques suivantes l'ont classé dans le clade des Lithostrotia, un clade qui inclut les Lognkosauria et les Aeolosaurini.
 </t>
         </is>
       </c>
